--- a/QlikView/Snippet/Qlikview commands.xlsx
+++ b/QlikView/Snippet/Qlikview commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07b11e16e433b233/Dokumentumok/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szoke.lajos\Source\Repos\BI-Tools\QlikView\Snippet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{22E68CD3-CF2D-4BCD-9285-9461D72E27DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED9A8418-FF51-4D99-BB3D-FBD1DF8CE5ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8899921-50E6-4166-886B-44F3600B015A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C79CF026-BF49-459B-8E99-C24552ABBF86}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{C79CF026-BF49-459B-8E99-C24552ABBF86}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Script control statements</t>
   </si>
@@ -210,23 +210,56 @@
   </si>
   <si>
     <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>This prefix is used to transform a parent-child hierarchy table to a table that is useful in a QlikView data model. It can be put in front of a LOAD or a SELECT statement and will use the result of the loading statement as input for a table transformation.</t>
+  </si>
+  <si>
+    <t>HierarchyBelongsTo (NodeID, ParentID, NodeName, AncestorID, AncestorName, [DepthDiff])(loadstatement | selectstatement)</t>
+  </si>
+  <si>
+    <t>HierarchyBelongsTo</t>
+  </si>
+  <si>
+    <t>Sub INCR (I,J)
+    I = I + 1
+    Exit Sub when I &lt; 10
+    J = J + 1
+End Sub
+Call INCR (X,Y)</t>
+  </si>
+  <si>
+    <t>sub DoDir (Root)
+    For Each Ext in 'qvw', 'qvo', 'qvs', 'qvt', 'qvd', 'qvc'
+        For Each File in filelist (Root&amp;'\*.' &amp;Ext)
+            LOAD
+                '$(File)' as Name, FileSize( '$(File)' ) as
+                Size, FileTime( '$(File)' ) as FileTime
+                autogenerate 1;
+        Next File
+    Next Ext
+    For Each Dir in dirlist (Root&amp;'\*' )
+        Call DoDir (Dir)
+    Next Dir
+End Sub
+Call DoDir ('C:')</t>
+  </si>
+  <si>
+    <t>KeyWords</t>
+  </si>
+  <si>
+    <t>Sub, Increment</t>
+  </si>
+  <si>
+    <t>Sub, Directory, For, Each, Load</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -260,6 +293,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,14 +339,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,24 +355,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -332,9 +505,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -358,9 +528,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -380,13 +547,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{204FC3AA-D11F-4E34-8521-8EC3CA261588}" name="Táblázat1" displayName="Táblázat1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D17" xr:uid="{83ACCD76-CD0A-436F-B6BD-19FE7F616B60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{204FC3AA-D11F-4E34-8521-8EC3CA261588}" name="Táblázat1" displayName="Táblázat1" ref="A1:D18" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:D18" xr:uid="{83ACCD76-CD0A-436F-B6BD-19FE7F616B60}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C05066E3-AAFD-4BB5-AD31-A791D4643D53}" name="Command_Type" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{43456D82-648C-4769-876C-AA70230A3217}" name="Command_Code" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5251BB54-64C2-484E-8514-2CEDBDD77A52}" name="Syntax" dataDxfId="0" dataCellStyle="Hivatkozás"/>
-    <tableColumn id="4" xr3:uid="{6C3820D4-556A-405F-86DB-C51618D860A2}" name="Description" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{17702676-F22D-4FFC-9B4D-5FCC0B15EFC1}" name="Command_Code" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C05066E3-AAFD-4BB5-AD31-A791D4643D53}" name="Command_Type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5251BB54-64C2-484E-8514-2CEDBDD77A52}" name="Syntax" dataDxfId="5" dataCellStyle="Hivatkozás"/>
+    <tableColumn id="4" xr3:uid="{6C3820D4-556A-405F-86DB-C51618D860A2}" name="Description" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B5A0C1C-83D7-44CB-B0F9-6D4DD2169B49}" name="Táblázat2" displayName="Táblázat2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C3" xr:uid="{7C89D892-3057-4DB3-8AC5-FCA59BBB3D6F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7F1A63C4-34F4-4076-83C0-05C9A1943B99}" name="Command_Code" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{AF36665C-905B-48E7-9C37-BD615796D91B}" name="KeyWords" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{769982AB-413B-4A71-B807-782B7A02F468}" name="Example" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -689,26 +868,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0F4749-F76E-48BB-A5EF-9D3E91938382}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="75.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -718,11 +897,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -732,11 +911,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -746,41 +925,41 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -788,13 +967,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -802,13 +981,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -816,13 +995,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -830,13 +1009,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -844,13 +1023,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -858,13 +1037,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -872,13 +1051,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -886,13 +1065,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -900,13 +1079,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -914,13 +1093,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -928,17 +1107,31 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -959,37 +1152,69 @@
     <hyperlink ref="C15" r:id="rId14" display="https://help.qlik.com/en-US/qlikview/April2019/Subsystems/Client/Content/QV_QlikView/Scripting/ScriptPrefixes/First.htm" xr:uid="{94F25887-5D0E-4F61-9762-B00FAE1A05D5}"/>
     <hyperlink ref="C16" r:id="rId15" display="https://help.qlik.com/en-US/qlikview/April2019/Subsystems/Client/Content/QV_QlikView/Scripting/ScriptPrefixes/Generic.htm" xr:uid="{385BF806-42F4-407C-8587-C5E33ED8F9AE}"/>
     <hyperlink ref="C17" r:id="rId16" display="https://help.qlik.com/en-US/qlikview/April2019/Subsystems/Client/Content/QV_QlikView/Scripting/ScriptPrefixes/Hierarchy.htm" xr:uid="{AF049B60-F793-4C47-851A-A6089B035760}"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://help.qlik.com/en-US/qlikview/April2019/Subsystems/Client/Content/QV_QlikView/Scripting/ScriptPrefixes/HierarchyBelongsTo.htm" xr:uid="{FA6BF2D5-2C3E-4FE3-8CD5-DBA8784D970B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8E3A60-9431-491E-8EA8-80E80F2F1D1A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6328125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="91.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="195.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/QlikView/Snippet/Qlikview commands.xlsx
+++ b/QlikView/Snippet/Qlikview commands.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szoke.lajos\Source\Repos\BI-Tools\QlikView\Snippet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8899921-50E6-4166-886B-44F3600B015A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B8899921-50E6-4166-886B-44F3600B015A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23A551EF-758E-4B97-A9DB-C538F0FBBCA4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{C79CF026-BF49-459B-8E99-C24552ABBF86}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C79CF026-BF49-459B-8E99-C24552ABBF86}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
     <sheet name="Script_Snippet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Script control statements</t>
   </si>
@@ -252,6 +252,57 @@
   </si>
   <si>
     <t>Sub, Directory, For, Each, Load</t>
+  </si>
+  <si>
+    <t>Image_Size</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Inner</t>
+  </si>
+  <si>
+    <t>Inputfield</t>
+  </si>
+  <si>
+    <t>IntervalMatch</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>NoConcatenate</t>
+  </si>
+  <si>
+    <t>Outer</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Semantic</t>
+  </si>
+  <si>
+    <t>Unless</t>
+  </si>
+  <si>
+    <t>When</t>
   </si>
 </sst>
 </file>
@@ -397,6 +448,22 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -414,22 +481,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -468,23 +519,6 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -528,6 +562,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -547,13 +598,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{204FC3AA-D11F-4E34-8521-8EC3CA261588}" name="Táblázat1" displayName="Táblázat1" ref="A1:D18" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:D18" xr:uid="{83ACCD76-CD0A-436F-B6BD-19FE7F616B60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{204FC3AA-D11F-4E34-8521-8EC3CA261588}" name="Táblázat1" displayName="Táblázat1" ref="A1:D35" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:D35" xr:uid="{83ACCD76-CD0A-436F-B6BD-19FE7F616B60}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{17702676-F22D-4FFC-9B4D-5FCC0B15EFC1}" name="Command_Code" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{17702676-F22D-4FFC-9B4D-5FCC0B15EFC1}" name="Command_Code" dataDxfId="7"/>
     <tableColumn id="1" xr3:uid="{C05066E3-AAFD-4BB5-AD31-A791D4643D53}" name="Command_Type" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{5251BB54-64C2-484E-8514-2CEDBDD77A52}" name="Syntax" dataDxfId="5" dataCellStyle="Hivatkozás"/>
-    <tableColumn id="4" xr3:uid="{6C3820D4-556A-405F-86DB-C51618D860A2}" name="Description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6C3820D4-556A-405F-86DB-C51618D860A2}" name="Description" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,8 +615,8 @@
   <autoFilter ref="A1:C3" xr:uid="{7C89D892-3057-4DB3-8AC5-FCA59BBB3D6F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7F1A63C4-34F4-4076-83C0-05C9A1943B99}" name="Command_Code" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{AF36665C-905B-48E7-9C37-BD615796D91B}" name="KeyWords" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{769982AB-413B-4A71-B807-782B7A02F468}" name="Example" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{AF36665C-905B-48E7-9C37-BD615796D91B}" name="KeyWords" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{769982AB-413B-4A71-B807-782B7A02F468}" name="Example" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,21 +919,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0F4749-F76E-48BB-A5EF-9D3E91938382}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.96484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.17578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.6015625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -896,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -910,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -924,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -938,7 +989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -952,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -966,7 +1017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -980,7 +1031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -994,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -1022,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1036,7 +1087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
@@ -1050,7 +1101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -1078,7 +1129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -1092,7 +1143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -1106,7 +1157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
@@ -1120,7 +1171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
@@ -1133,6 +1184,159 @@
       <c r="D18" s="4" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1166,18 +1370,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8E3A60-9431-491E-8EA8-80E80F2F1D1A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6328125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="19.37109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.66796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.66796875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="86.25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="195.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="183.75" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
